--- a/public/files/templates/standard activity.xlsx
+++ b/public/files/templates/standard activity.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cost-control\public\files\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" tabRatio="500"/>
+    <workbookView windowWidth="27225" windowHeight="13290" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Activity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>Division</t>
   </si>
@@ -38,25 +25,37 @@
     <t>Sub Division 2</t>
   </si>
   <si>
+    <t>Work Pakage Name</t>
+  </si>
+  <si>
     <t>Activity Name</t>
   </si>
   <si>
-    <t>Work Pakage Name</t>
+    <t xml:space="preserve">Activity Code </t>
   </si>
   <si>
-    <t xml:space="preserve">Activity Code </t>
+    <t>ID Partial</t>
+  </si>
+  <si>
+    <t>Discipline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,19 +63,356 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,9 +420,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -97,72 +675,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="StandardActivity" displayName="StandardActivity" ref="A1:F136" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F136"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Division" dataDxfId="5"/>
-    <tableColumn id="2" name="Sub Division 1" dataDxfId="4"/>
-    <tableColumn id="3" name="Sub Division 2" dataDxfId="3"/>
-    <tableColumn id="7" name="Work Pakage Name" dataDxfId="2"/>
-    <tableColumn id="4" name="Activity Name" dataDxfId="1"/>
-    <tableColumn id="5" name="Activity Code " dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="StandardActivity" displayName="StandardActivity" ref="A1:H136" totalsRowShown="0">
+  <autoFilter ref="A1:H136"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Division"/>
+    <tableColumn id="2" name="Sub Division 1"/>
+    <tableColumn id="3" name="Sub Division 2"/>
+    <tableColumn id="4" name="Work Pakage Name"/>
+    <tableColumn id="5" name="Activity Name"/>
+    <tableColumn id="6" name="Activity Code "/>
+    <tableColumn id="7" name="ID Partial"/>
+    <tableColumn id="8" name="Discipline"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -173,7 +752,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -211,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -246,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -421,34 +1000,29 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.2" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5037037037037" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="19.2" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,16 +1033,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -477,7 +1057,8 @@
       <c r="F2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
